--- a/inputs/bdLabels.xlsx
+++ b/inputs/bdLabels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eo\Documents\999_Repositorios\PIBNowcast\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60BF0BA-3F08-41AB-849A-6B3A37BADA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192E289-6EA4-49CB-88A2-B5F79B0A1121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E54A81BC-F733-4339-9A65-9E03901075C0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Labels" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Labels!$A$1:$C$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Labels!$A$1:$C$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="560">
   <si>
     <t>ipc1_sal</t>
   </si>
@@ -1287,13 +1287,442 @@
   </si>
   <si>
     <t>Actividad</t>
+  </si>
+  <si>
+    <t>Series Mensuales</t>
+  </si>
+  <si>
+    <t>Series Trimestrales</t>
+  </si>
+  <si>
+    <t>pbim_agr_1</t>
+  </si>
+  <si>
+    <t>pbim_pes_1</t>
+  </si>
+  <si>
+    <t>pbim_min_1</t>
+  </si>
+  <si>
+    <t>pbim_man_1</t>
+  </si>
+  <si>
+    <t>pbim_ene_1</t>
+  </si>
+  <si>
+    <t>pbim_con_1</t>
+  </si>
+  <si>
+    <t>pbim_com_1</t>
+  </si>
+  <si>
+    <t>pbim_ser_1</t>
+  </si>
+  <si>
+    <t>pbim_trn_1</t>
+  </si>
+  <si>
+    <t>pbim_fin_1</t>
+  </si>
+  <si>
+    <t>pbim_inm_1</t>
+  </si>
+  <si>
+    <t>pbim_ens_1</t>
+  </si>
+  <si>
+    <t>pbim_sss_1</t>
+  </si>
+  <si>
+    <t>pbim_ots_1</t>
+  </si>
+  <si>
+    <t>pbic_cin_1</t>
+  </si>
+  <si>
+    <t>pbia_con_1</t>
+  </si>
+  <si>
+    <t>pbia_inm_1</t>
+  </si>
+  <si>
+    <t>pbia_dom_1</t>
+  </si>
+  <si>
+    <t>pbio_pnm_1</t>
+  </si>
+  <si>
+    <t>pbio_imp_1</t>
+  </si>
+  <si>
+    <t>pbif_1</t>
+  </si>
+  <si>
+    <t>pbim_agr_2</t>
+  </si>
+  <si>
+    <t>pbim_pes_2</t>
+  </si>
+  <si>
+    <t>pbim_min_2</t>
+  </si>
+  <si>
+    <t>pbim_man_2</t>
+  </si>
+  <si>
+    <t>pbim_ene_2</t>
+  </si>
+  <si>
+    <t>pbim_con_2</t>
+  </si>
+  <si>
+    <t>pbim_com_2</t>
+  </si>
+  <si>
+    <t>pbim_ser_2</t>
+  </si>
+  <si>
+    <t>pbim_trn_2</t>
+  </si>
+  <si>
+    <t>pbim_fin_2</t>
+  </si>
+  <si>
+    <t>pbim_inm_2</t>
+  </si>
+  <si>
+    <t>pbim_ens_2</t>
+  </si>
+  <si>
+    <t>pbim_sss_2</t>
+  </si>
+  <si>
+    <t>pbim_ots_2</t>
+  </si>
+  <si>
+    <t>pbic_cin_2</t>
+  </si>
+  <si>
+    <t>pbia_con_2</t>
+  </si>
+  <si>
+    <t>pbia_inm_2</t>
+  </si>
+  <si>
+    <t>pbia_dom_2</t>
+  </si>
+  <si>
+    <t>pbio_pnm_2</t>
+  </si>
+  <si>
+    <t>pbio_imp_2</t>
+  </si>
+  <si>
+    <t>pbif_2</t>
+  </si>
+  <si>
+    <t>pbim_agr</t>
+  </si>
+  <si>
+    <t>pbim_pes</t>
+  </si>
+  <si>
+    <t>pbim_min</t>
+  </si>
+  <si>
+    <t>pbim_man</t>
+  </si>
+  <si>
+    <t>pbim_ene</t>
+  </si>
+  <si>
+    <t>pbim_con</t>
+  </si>
+  <si>
+    <t>pbim_com</t>
+  </si>
+  <si>
+    <t>pbim_ser</t>
+  </si>
+  <si>
+    <t>pbim_trn</t>
+  </si>
+  <si>
+    <t>pbim_fin</t>
+  </si>
+  <si>
+    <t>pbim_inm</t>
+  </si>
+  <si>
+    <t>pbim_ens</t>
+  </si>
+  <si>
+    <t>pbim_sss</t>
+  </si>
+  <si>
+    <t>pbim_ots</t>
+  </si>
+  <si>
+    <t>pbic_cin</t>
+  </si>
+  <si>
+    <t>pbia_con</t>
+  </si>
+  <si>
+    <t>pbia_inm</t>
+  </si>
+  <si>
+    <t>pbia_dom</t>
+  </si>
+  <si>
+    <t>pbio_pnm</t>
+  </si>
+  <si>
+    <t>pbio_imp</t>
+  </si>
+  <si>
+    <t>pbif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasto de consumo final del Gobierno General </t>
+  </si>
+  <si>
+    <t>pbig_cfg</t>
+  </si>
+  <si>
+    <t>Gasto de consumo final de los hogares e ISFLH</t>
+  </si>
+  <si>
+    <t>pbig_cfp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formación bruta de capital fijo </t>
+  </si>
+  <si>
+    <t>pbig_inv</t>
+  </si>
+  <si>
+    <t>Variación de las existencias</t>
+  </si>
+  <si>
+    <t>pbig_vex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportaciones de bienes y servicios  </t>
+  </si>
+  <si>
+    <t>pbig_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menos:  Importaciones de bienes y servicios </t>
+  </si>
+  <si>
+    <t>pbig_imp</t>
+  </si>
+  <si>
+    <t>PRODUCTO INTERNO BRUTO A PRECIOS DE COMPRADOR</t>
+  </si>
+  <si>
+    <t>pbig</t>
+  </si>
+  <si>
+    <t>pbim</t>
+  </si>
+  <si>
+    <t>pbic</t>
+  </si>
+  <si>
+    <t>pbia</t>
+  </si>
+  <si>
+    <t>pbio</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería y silvicultura - Base 1996</t>
+  </si>
+  <si>
+    <t>Pesca - Base 1996</t>
+  </si>
+  <si>
+    <t>Explotación de minas y canteras - Base 1996</t>
+  </si>
+  <si>
+    <t>Industrias manufactureras - Base 1996</t>
+  </si>
+  <si>
+    <t>Suministro de electricidad, gas y agua - Base 1996</t>
+  </si>
+  <si>
+    <t>Construcción - Base 1996</t>
+  </si>
+  <si>
+    <t>Comercio al por mayor y al por menor; reparación de vehículos automotores, motocicletas, efectos personales y enseres domésticos - Base 1996</t>
+  </si>
+  <si>
+    <t>Hoteles y restaurantes - Base 1996</t>
+  </si>
+  <si>
+    <t>Transporte, almacenamiento y comunicaciones - Base 1996</t>
+  </si>
+  <si>
+    <t>Intermediación financiera - Base 1996</t>
+  </si>
+  <si>
+    <t>Actividades inmobiliarias, empresariales y de alquiler - Base 1996</t>
+  </si>
+  <si>
+    <t>Enseñanza privada - Base 1996</t>
+  </si>
+  <si>
+    <t>Actividades de servicios sociales y de salud privada - Base 1996</t>
+  </si>
+  <si>
+    <t>Otras actividades comunitarias, sociales y personales de servicios  - Base 1996</t>
+  </si>
+  <si>
+    <t>Servicios de Intermediación Financiera Medidos  Indirectamente  (SIFMI), asignados al consumo interno - Base 1996</t>
+  </si>
+  <si>
+    <t>Actividades Inmobiliarias, empresariales y de alquiler - Base 1996</t>
+  </si>
+  <si>
+    <t>Hogares privados con servicios domésticos - Base 1996</t>
+  </si>
+  <si>
+    <t>Producción de no mercado (P.13)........................... - Base 1996</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos netos de subsidios - Base 1996</t>
+  </si>
+  <si>
+    <t>PBI - Base 1996</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería y silvicultura - Base 2007</t>
+  </si>
+  <si>
+    <t>Pesca - Base 2007</t>
+  </si>
+  <si>
+    <t>Explotación de minas y canteras - Base 2007</t>
+  </si>
+  <si>
+    <t>Industrias manufactureras - Base 2007</t>
+  </si>
+  <si>
+    <t>Suministro de electricidad, gas y agua - Base 2007</t>
+  </si>
+  <si>
+    <t>Construcción - Base 2007</t>
+  </si>
+  <si>
+    <t>Comercio al por mayor y al por menor; reparación de vehículos automotores, motocicletas, efectos personales y enseres domésticos - Base 2007</t>
+  </si>
+  <si>
+    <t>Hoteles y restaurantes - Base 2007</t>
+  </si>
+  <si>
+    <t>Transporte, almacenamiento y comunicaciones - Base 2007</t>
+  </si>
+  <si>
+    <t>Intermediación financiera - Base 2007</t>
+  </si>
+  <si>
+    <t>Actividades inmobiliarias, empresariales y de alquiler - Base 2007</t>
+  </si>
+  <si>
+    <t>Enseñanza privada - Base 2007</t>
+  </si>
+  <si>
+    <t>Actividades de servicios sociales y de salud privada - Base 2007</t>
+  </si>
+  <si>
+    <t>Otras actividades comunitarias, sociales y personales de servicios  - Base 2007</t>
+  </si>
+  <si>
+    <t>Servicios de Intermediación Financiera Medidos  Indirectamente  (SIFMI), asignados al consumo interno - Base 2007</t>
+  </si>
+  <si>
+    <t>Actividades Inmobiliarias, empresariales y de alquiler - Base 2007</t>
+  </si>
+  <si>
+    <t>Hogares privados con servicios domésticos - Base 2007</t>
+  </si>
+  <si>
+    <t>Producción de no mercado (P.13)........................... - Base 2007</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos netos de subsidios - Base 2007</t>
+  </si>
+  <si>
+    <t>PIB - Base 2007</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería y silvicultura - Concatenado</t>
+  </si>
+  <si>
+    <t>Pesca - Concatenado</t>
+  </si>
+  <si>
+    <t>Explotación de minas y canteras - Concatenado</t>
+  </si>
+  <si>
+    <t>Industrias manufactureras - Concatenado</t>
+  </si>
+  <si>
+    <t>Suministro de electricidad, gas y agua - Concatenado</t>
+  </si>
+  <si>
+    <t>Construcción - Concatenado</t>
+  </si>
+  <si>
+    <t>Comercio al por mayor y al por menor; reparación de vehículos automotores, motocicletas, efectos personales y enseres domésticos - Concatenado</t>
+  </si>
+  <si>
+    <t>Hoteles y restaurantes - Concatenado</t>
+  </si>
+  <si>
+    <t>Transporte, almacenamiento y comunicaciones - Concatenado</t>
+  </si>
+  <si>
+    <t>Intermediación financiera - Concatenado</t>
+  </si>
+  <si>
+    <t>Actividades inmobiliarias, empresariales y de alquiler - Concatenado</t>
+  </si>
+  <si>
+    <t>Enseñanza privada - Concatenado</t>
+  </si>
+  <si>
+    <t>Actividades de servicios sociales y de salud privada - Concatenado</t>
+  </si>
+  <si>
+    <t>Otras actividades comunitarias, sociales y personales de servicios  - Concatenado</t>
+  </si>
+  <si>
+    <t>Servicios de Intermediación Financiera Medidos  Indirectamente  (SIFMI), asignados al consumo interno - Concatenado</t>
+  </si>
+  <si>
+    <t>Actividades Inmobiliarias, empresariales y de alquiler - Concatenado</t>
+  </si>
+  <si>
+    <t>Hogares privados con servicios domésticos - Concatenado</t>
+  </si>
+  <si>
+    <t>Producción de no mercado (P.13)........................... - Concatenado</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos netos de subsidios - Concatenado</t>
+  </si>
+  <si>
+    <t>PIB - Concatenado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1303,6 +1732,13 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1334,9 +1770,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1651,15 +2088,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2990432-1DD9-44DB-9B8E-6A16D51C9DEE}">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D282"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A158" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D210"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A160" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,25 +2116,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D2" t="s">
-        <v>412</v>
+      <c r="A2" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
         <v>405</v>
@@ -1706,10 +2136,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
         <v>405</v>
@@ -1720,10 +2150,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
         <v>405</v>
@@ -1734,10 +2164,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>405</v>
@@ -1748,10 +2178,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
         <v>405</v>
@@ -1762,10 +2192,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>405</v>
@@ -1776,10 +2206,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>405</v>
@@ -1790,24 +2220,24 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
         <v>406</v>
@@ -1818,10 +2248,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
         <v>406</v>
@@ -1832,10 +2262,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
         <v>406</v>
@@ -1846,10 +2276,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
         <v>406</v>
@@ -1860,10 +2290,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>406</v>
@@ -1874,10 +2304,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
         <v>406</v>
@@ -1888,10 +2318,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
         <v>406</v>
@@ -1902,10 +2332,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
         <v>406</v>
@@ -1916,7 +2346,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>223</v>
@@ -1930,10 +2360,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
         <v>406</v>
@@ -1944,10 +2374,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
         <v>406</v>
@@ -1958,10 +2388,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
         <v>406</v>
@@ -1972,10 +2402,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
         <v>406</v>
@@ -1986,10 +2416,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
         <v>406</v>
@@ -2000,7 +2430,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>227</v>
@@ -2014,10 +2444,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
         <v>406</v>
@@ -2028,10 +2458,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
         <v>406</v>
@@ -2042,10 +2472,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
         <v>406</v>
@@ -2056,10 +2486,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
         <v>406</v>
@@ -2070,10 +2500,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
         <v>406</v>
@@ -2084,10 +2514,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
         <v>406</v>
@@ -2098,10 +2528,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
         <v>406</v>
@@ -2112,10 +2542,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
         <v>406</v>
@@ -2126,10 +2556,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
         <v>406</v>
@@ -2140,10 +2570,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
         <v>406</v>
@@ -2154,10 +2584,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C36" t="s">
         <v>406</v>
@@ -2168,10 +2598,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
         <v>406</v>
@@ -2182,10 +2612,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
         <v>406</v>
@@ -2196,10 +2626,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
         <v>406</v>
@@ -2210,10 +2640,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
         <v>406</v>
@@ -2224,7 +2654,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>240</v>
@@ -2238,10 +2668,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
         <v>406</v>
@@ -2252,10 +2682,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
         <v>406</v>
@@ -2266,10 +2696,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
         <v>406</v>
@@ -2280,10 +2710,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
         <v>406</v>
@@ -2294,10 +2724,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
         <v>406</v>
@@ -2308,10 +2738,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" t="s">
         <v>406</v>
@@ -2322,10 +2752,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
         <v>406</v>
@@ -2336,10 +2766,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
         <v>406</v>
@@ -2350,7 +2780,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>248</v>
@@ -2364,10 +2794,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
         <v>406</v>
@@ -2378,10 +2808,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
         <v>406</v>
@@ -2392,10 +2822,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
         <v>406</v>
@@ -2406,10 +2836,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
         <v>406</v>
@@ -2420,10 +2850,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
         <v>406</v>
@@ -2434,10 +2864,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C56" t="s">
         <v>406</v>
@@ -2448,10 +2878,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
         <v>406</v>
@@ -2462,10 +2892,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s">
         <v>406</v>
@@ -2476,10 +2906,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C59" t="s">
         <v>406</v>
@@ -2490,10 +2920,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C60" t="s">
         <v>406</v>
@@ -2504,10 +2934,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
         <v>406</v>
@@ -2518,10 +2948,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s">
         <v>406</v>
@@ -2532,24 +2962,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
         <v>407</v>
@@ -2560,10 +2990,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C65" t="s">
         <v>407</v>
@@ -2574,10 +3004,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C66" t="s">
         <v>407</v>
@@ -2588,10 +3018,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s">
         <v>407</v>
@@ -2602,10 +3032,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" t="s">
         <v>407</v>
@@ -2616,10 +3046,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C69" t="s">
         <v>407</v>
@@ -2630,10 +3060,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C70" t="s">
         <v>407</v>
@@ -2644,10 +3074,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C71" t="s">
         <v>407</v>
@@ -2658,10 +3088,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
         <v>407</v>
@@ -2672,10 +3102,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
         <v>407</v>
@@ -2686,10 +3116,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
         <v>407</v>
@@ -2700,10 +3130,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C75" t="s">
         <v>407</v>
@@ -2714,10 +3144,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C76" t="s">
         <v>407</v>
@@ -2728,10 +3158,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
         <v>407</v>
@@ -2742,10 +3172,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
         <v>407</v>
@@ -2756,10 +3186,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C79" t="s">
         <v>407</v>
@@ -2770,10 +3200,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s">
         <v>407</v>
@@ -2784,10 +3214,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s">
         <v>407</v>
@@ -2798,10 +3228,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C82" t="s">
         <v>407</v>
@@ -2812,10 +3242,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C83" t="s">
         <v>407</v>
@@ -2826,10 +3256,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C84" t="s">
         <v>407</v>
@@ -2840,10 +3270,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C85" t="s">
         <v>407</v>
@@ -2854,10 +3284,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C86" t="s">
         <v>407</v>
@@ -2868,10 +3298,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C87" t="s">
         <v>407</v>
@@ -2882,10 +3312,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C88" t="s">
         <v>407</v>
@@ -2896,10 +3326,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C89" t="s">
         <v>407</v>
@@ -2910,10 +3340,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C90" t="s">
         <v>407</v>
@@ -2924,10 +3354,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C91" t="s">
         <v>407</v>
@@ -2938,10 +3368,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
         <v>407</v>
@@ -2952,10 +3382,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C93" t="s">
         <v>407</v>
@@ -2966,10 +3396,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s">
         <v>407</v>
@@ -2980,10 +3410,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
         <v>407</v>
@@ -2994,10 +3424,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
         <v>407</v>
@@ -3008,10 +3438,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
         <v>407</v>
@@ -3022,10 +3452,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C98" t="s">
         <v>407</v>
@@ -3036,10 +3466,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
         <v>407</v>
@@ -3050,10 +3480,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
         <v>407</v>
@@ -3064,10 +3494,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s">
         <v>407</v>
@@ -3078,10 +3508,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C102" t="s">
         <v>407</v>
@@ -3092,10 +3522,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C103" t="s">
         <v>407</v>
@@ -3106,10 +3536,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
         <v>407</v>
@@ -3120,10 +3550,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
         <v>407</v>
@@ -3134,10 +3564,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s">
         <v>407</v>
@@ -3148,10 +3578,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C107" t="s">
         <v>407</v>
@@ -3162,10 +3592,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C108" t="s">
         <v>407</v>
@@ -3176,10 +3606,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C109" t="s">
         <v>407</v>
@@ -3190,10 +3620,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C110" t="s">
         <v>407</v>
@@ -3204,10 +3634,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C111" t="s">
         <v>407</v>
@@ -3218,10 +3648,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C112" t="s">
         <v>407</v>
@@ -3232,10 +3662,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C113" t="s">
         <v>407</v>
@@ -3246,10 +3676,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C114" t="s">
         <v>407</v>
@@ -3260,10 +3690,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C115" t="s">
         <v>407</v>
@@ -3274,10 +3704,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C116" t="s">
         <v>407</v>
@@ -3288,10 +3718,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C117" t="s">
         <v>407</v>
@@ -3302,10 +3732,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C118" t="s">
         <v>407</v>
@@ -3316,10 +3746,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C119" t="s">
         <v>407</v>
@@ -3330,24 +3760,24 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D120" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C121" t="s">
         <v>408</v>
@@ -3358,10 +3788,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C122" t="s">
         <v>408</v>
@@ -3372,10 +3802,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C123" t="s">
         <v>408</v>
@@ -3386,10 +3816,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C124" t="s">
         <v>408</v>
@@ -3400,10 +3830,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C125" t="s">
         <v>408</v>
@@ -3414,10 +3844,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C126" t="s">
         <v>408</v>
@@ -3428,10 +3858,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C127" t="s">
         <v>408</v>
@@ -3442,10 +3872,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C128" t="s">
         <v>408</v>
@@ -3456,10 +3886,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C129" t="s">
         <v>408</v>
@@ -3470,10 +3900,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C130" t="s">
         <v>408</v>
@@ -3484,10 +3914,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C131" t="s">
         <v>408</v>
@@ -3498,10 +3928,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C132" t="s">
         <v>408</v>
@@ -3512,10 +3942,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C133" t="s">
         <v>408</v>
@@ -3526,10 +3956,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C134" t="s">
         <v>408</v>
@@ -3540,10 +3970,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C135" t="s">
         <v>408</v>
@@ -3554,10 +3984,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C136" t="s">
         <v>408</v>
@@ -3568,10 +3998,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
         <v>408</v>
@@ -3582,10 +4012,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s">
         <v>408</v>
@@ -3596,10 +4026,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C139" t="s">
         <v>408</v>
@@ -3610,10 +4040,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C140" t="s">
         <v>408</v>
@@ -3624,10 +4054,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C141" t="s">
         <v>408</v>
@@ -3638,10 +4068,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C142" t="s">
         <v>408</v>
@@ -3652,10 +4082,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s">
         <v>408</v>
@@ -3666,10 +4096,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C144" t="s">
         <v>408</v>
@@ -3680,10 +4110,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C145" t="s">
         <v>408</v>
@@ -3694,10 +4124,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C146" t="s">
         <v>408</v>
@@ -3708,10 +4138,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C147" t="s">
         <v>408</v>
@@ -3722,10 +4152,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C148" t="s">
         <v>408</v>
@@ -3736,10 +4166,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C149" t="s">
         <v>408</v>
@@ -3750,10 +4180,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C150" t="s">
         <v>408</v>
@@ -3764,10 +4194,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C151" t="s">
         <v>408</v>
@@ -3778,10 +4208,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C152" t="s">
         <v>408</v>
@@ -3792,10 +4222,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C153" t="s">
         <v>408</v>
@@ -3806,10 +4236,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C154" t="s">
         <v>408</v>
@@ -3820,10 +4250,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C155" t="s">
         <v>408</v>
@@ -3834,10 +4264,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C156" t="s">
         <v>408</v>
@@ -3848,10 +4278,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C157" t="s">
         <v>408</v>
@@ -3862,10 +4292,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C158" t="s">
         <v>408</v>
@@ -3876,10 +4306,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C159" t="s">
         <v>408</v>
@@ -3890,10 +4320,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C160" t="s">
         <v>408</v>
@@ -3904,10 +4334,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C161" t="s">
         <v>408</v>
@@ -3918,10 +4348,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C162" t="s">
         <v>408</v>
@@ -3932,10 +4362,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C163" t="s">
         <v>408</v>
@@ -3946,10 +4376,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C164" t="s">
         <v>408</v>
@@ -3960,10 +4390,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C165" t="s">
         <v>408</v>
@@ -3974,10 +4404,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C166" t="s">
         <v>408</v>
@@ -3988,10 +4418,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C167" t="s">
         <v>408</v>
@@ -4002,10 +4432,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C168" t="s">
         <v>408</v>
@@ -4016,10 +4446,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C169" t="s">
         <v>408</v>
@@ -4030,10 +4460,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C170" t="s">
         <v>408</v>
@@ -4044,10 +4474,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C171" t="s">
         <v>408</v>
@@ -4058,10 +4488,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C172" t="s">
         <v>408</v>
@@ -4072,10 +4502,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C173" t="s">
         <v>408</v>
@@ -4086,10 +4516,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C174" t="s">
         <v>408</v>
@@ -4100,10 +4530,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C175" t="s">
         <v>408</v>
@@ -4114,10 +4544,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="C176" t="s">
         <v>408</v>
@@ -4128,10 +4558,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C177" t="s">
         <v>408</v>
@@ -4142,10 +4572,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C178" t="s">
         <v>408</v>
@@ -4156,10 +4586,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C179" t="s">
         <v>408</v>
@@ -4170,10 +4600,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C180" t="s">
         <v>408</v>
@@ -4184,10 +4614,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C181" t="s">
         <v>408</v>
@@ -4198,10 +4628,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C182" t="s">
         <v>408</v>
@@ -4212,10 +4642,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C183" t="s">
         <v>408</v>
@@ -4226,10 +4656,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C184" t="s">
         <v>408</v>
@@ -4240,10 +4670,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C185" t="s">
         <v>408</v>
@@ -4254,10 +4684,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C186" t="s">
         <v>408</v>
@@ -4268,10 +4698,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C187" t="s">
         <v>408</v>
@@ -4282,10 +4712,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C188" t="s">
         <v>408</v>
@@ -4296,10 +4726,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C189" t="s">
         <v>408</v>
@@ -4310,10 +4740,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C190" t="s">
         <v>408</v>
@@ -4324,10 +4754,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C191" t="s">
         <v>408</v>
@@ -4338,10 +4768,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C192" t="s">
         <v>408</v>
@@ -4352,10 +4782,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C193" t="s">
         <v>408</v>
@@ -4366,10 +4796,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C194" t="s">
         <v>408</v>
@@ -4380,10 +4810,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C195" t="s">
         <v>408</v>
@@ -4394,10 +4824,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C196" t="s">
         <v>408</v>
@@ -4408,10 +4838,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C197" t="s">
         <v>408</v>
@@ -4422,10 +4852,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C198" t="s">
         <v>408</v>
@@ -4436,10 +4866,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C199" t="s">
         <v>408</v>
@@ -4450,10 +4880,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C200" t="s">
         <v>408</v>
@@ -4464,10 +4894,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="C201" t="s">
         <v>408</v>
@@ -4478,10 +4908,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C202" t="s">
         <v>408</v>
@@ -4492,10 +4922,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C203" t="s">
         <v>408</v>
@@ -4506,10 +4936,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C204" t="s">
         <v>408</v>
@@ -4520,10 +4950,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C205" t="s">
         <v>408</v>
@@ -4534,10 +4964,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C206" t="s">
         <v>408</v>
@@ -4548,10 +4978,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C207" t="s">
         <v>408</v>
@@ -4562,10 +4992,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C208" t="s">
         <v>408</v>
@@ -4576,10 +5006,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C209" t="s">
         <v>408</v>
@@ -4590,16 +5020,1015 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210" t="s">
+        <v>403</v>
+      </c>
+      <c r="C210" t="s">
+        <v>408</v>
+      </c>
+      <c r="D210" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>404</v>
       </c>
-      <c r="C210" t="s">
-        <v>408</v>
-      </c>
-      <c r="D210" t="s">
-        <v>413</v>
+      <c r="C211" t="s">
+        <v>408</v>
+      </c>
+      <c r="D211" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" t="s">
+        <v>500</v>
+      </c>
+      <c r="C213" t="s">
+        <v>496</v>
+      </c>
+      <c r="D213" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>420</v>
+      </c>
+      <c r="B214" t="s">
+        <v>501</v>
+      </c>
+      <c r="C214" t="s">
+        <v>496</v>
+      </c>
+      <c r="D214" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>421</v>
+      </c>
+      <c r="B215" t="s">
+        <v>502</v>
+      </c>
+      <c r="C215" t="s">
+        <v>496</v>
+      </c>
+      <c r="D215" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>422</v>
+      </c>
+      <c r="B216" t="s">
+        <v>503</v>
+      </c>
+      <c r="C216" t="s">
+        <v>496</v>
+      </c>
+      <c r="D216" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>423</v>
+      </c>
+      <c r="B217" t="s">
+        <v>504</v>
+      </c>
+      <c r="C217" t="s">
+        <v>496</v>
+      </c>
+      <c r="D217" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>424</v>
+      </c>
+      <c r="B218" t="s">
+        <v>505</v>
+      </c>
+      <c r="C218" t="s">
+        <v>496</v>
+      </c>
+      <c r="D218" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>425</v>
+      </c>
+      <c r="B219" t="s">
+        <v>506</v>
+      </c>
+      <c r="C219" t="s">
+        <v>496</v>
+      </c>
+      <c r="D219" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>426</v>
+      </c>
+      <c r="B220" t="s">
+        <v>507</v>
+      </c>
+      <c r="C220" t="s">
+        <v>496</v>
+      </c>
+      <c r="D220" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>427</v>
+      </c>
+      <c r="B221" t="s">
+        <v>508</v>
+      </c>
+      <c r="C221" t="s">
+        <v>496</v>
+      </c>
+      <c r="D221" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>428</v>
+      </c>
+      <c r="B222" t="s">
+        <v>509</v>
+      </c>
+      <c r="C222" t="s">
+        <v>496</v>
+      </c>
+      <c r="D222" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>429</v>
+      </c>
+      <c r="B223" t="s">
+        <v>510</v>
+      </c>
+      <c r="C223" t="s">
+        <v>496</v>
+      </c>
+      <c r="D223" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>430</v>
+      </c>
+      <c r="B224" t="s">
+        <v>511</v>
+      </c>
+      <c r="C224" t="s">
+        <v>496</v>
+      </c>
+      <c r="D224" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>431</v>
+      </c>
+      <c r="B225" t="s">
+        <v>512</v>
+      </c>
+      <c r="C225" t="s">
+        <v>496</v>
+      </c>
+      <c r="D225" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>432</v>
+      </c>
+      <c r="B226" t="s">
+        <v>513</v>
+      </c>
+      <c r="C226" t="s">
+        <v>496</v>
+      </c>
+      <c r="D226" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>433</v>
+      </c>
+      <c r="B227" t="s">
+        <v>514</v>
+      </c>
+      <c r="C227" t="s">
+        <v>497</v>
+      </c>
+      <c r="D227" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>434</v>
+      </c>
+      <c r="B228" t="s">
+        <v>505</v>
+      </c>
+      <c r="C228" t="s">
+        <v>498</v>
+      </c>
+      <c r="D228" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>435</v>
+      </c>
+      <c r="B229" t="s">
+        <v>515</v>
+      </c>
+      <c r="C229" t="s">
+        <v>498</v>
+      </c>
+      <c r="D229" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>436</v>
+      </c>
+      <c r="B230" t="s">
+        <v>516</v>
+      </c>
+      <c r="C230" t="s">
+        <v>498</v>
+      </c>
+      <c r="D230" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>437</v>
+      </c>
+      <c r="B231" t="s">
+        <v>517</v>
+      </c>
+      <c r="C231" t="s">
+        <v>499</v>
+      </c>
+      <c r="D231" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>438</v>
+      </c>
+      <c r="B232" t="s">
+        <v>518</v>
+      </c>
+      <c r="C232" t="s">
+        <v>499</v>
+      </c>
+      <c r="D232" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>439</v>
+      </c>
+      <c r="B233" t="s">
+        <v>519</v>
+      </c>
+      <c r="C233" t="s">
+        <v>481</v>
+      </c>
+      <c r="D233" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>440</v>
+      </c>
+      <c r="B234" t="s">
+        <v>520</v>
+      </c>
+      <c r="C234" t="s">
+        <v>496</v>
+      </c>
+      <c r="D234" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>441</v>
+      </c>
+      <c r="B235" t="s">
+        <v>521</v>
+      </c>
+      <c r="C235" t="s">
+        <v>496</v>
+      </c>
+      <c r="D235" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>442</v>
+      </c>
+      <c r="B236" t="s">
+        <v>522</v>
+      </c>
+      <c r="C236" t="s">
+        <v>496</v>
+      </c>
+      <c r="D236" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>443</v>
+      </c>
+      <c r="B237" t="s">
+        <v>523</v>
+      </c>
+      <c r="C237" t="s">
+        <v>496</v>
+      </c>
+      <c r="D237" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>444</v>
+      </c>
+      <c r="B238" t="s">
+        <v>524</v>
+      </c>
+      <c r="C238" t="s">
+        <v>496</v>
+      </c>
+      <c r="D238" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>445</v>
+      </c>
+      <c r="B239" t="s">
+        <v>525</v>
+      </c>
+      <c r="C239" t="s">
+        <v>496</v>
+      </c>
+      <c r="D239" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>446</v>
+      </c>
+      <c r="B240" t="s">
+        <v>526</v>
+      </c>
+      <c r="C240" t="s">
+        <v>496</v>
+      </c>
+      <c r="D240" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>447</v>
+      </c>
+      <c r="B241" t="s">
+        <v>527</v>
+      </c>
+      <c r="C241" t="s">
+        <v>496</v>
+      </c>
+      <c r="D241" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>448</v>
+      </c>
+      <c r="B242" t="s">
+        <v>528</v>
+      </c>
+      <c r="C242" t="s">
+        <v>496</v>
+      </c>
+      <c r="D242" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>449</v>
+      </c>
+      <c r="B243" t="s">
+        <v>529</v>
+      </c>
+      <c r="C243" t="s">
+        <v>496</v>
+      </c>
+      <c r="D243" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>450</v>
+      </c>
+      <c r="B244" t="s">
+        <v>530</v>
+      </c>
+      <c r="C244" t="s">
+        <v>496</v>
+      </c>
+      <c r="D244" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>451</v>
+      </c>
+      <c r="B245" t="s">
+        <v>531</v>
+      </c>
+      <c r="C245" t="s">
+        <v>496</v>
+      </c>
+      <c r="D245" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>452</v>
+      </c>
+      <c r="B246" t="s">
+        <v>532</v>
+      </c>
+      <c r="C246" t="s">
+        <v>496</v>
+      </c>
+      <c r="D246" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>453</v>
+      </c>
+      <c r="B247" t="s">
+        <v>533</v>
+      </c>
+      <c r="C247" t="s">
+        <v>496</v>
+      </c>
+      <c r="D247" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>454</v>
+      </c>
+      <c r="B248" t="s">
+        <v>534</v>
+      </c>
+      <c r="C248" t="s">
+        <v>497</v>
+      </c>
+      <c r="D248" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>455</v>
+      </c>
+      <c r="B249" t="s">
+        <v>525</v>
+      </c>
+      <c r="C249" t="s">
+        <v>498</v>
+      </c>
+      <c r="D249" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>456</v>
+      </c>
+      <c r="B250" t="s">
+        <v>535</v>
+      </c>
+      <c r="C250" t="s">
+        <v>498</v>
+      </c>
+      <c r="D250" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>457</v>
+      </c>
+      <c r="B251" t="s">
+        <v>536</v>
+      </c>
+      <c r="C251" t="s">
+        <v>498</v>
+      </c>
+      <c r="D251" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>458</v>
+      </c>
+      <c r="B252" t="s">
+        <v>537</v>
+      </c>
+      <c r="C252" t="s">
+        <v>499</v>
+      </c>
+      <c r="D252" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>459</v>
+      </c>
+      <c r="B253" t="s">
+        <v>538</v>
+      </c>
+      <c r="C253" t="s">
+        <v>499</v>
+      </c>
+      <c r="D253" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>460</v>
+      </c>
+      <c r="B254" t="s">
+        <v>539</v>
+      </c>
+      <c r="C254" t="s">
+        <v>481</v>
+      </c>
+      <c r="D254" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>461</v>
+      </c>
+      <c r="B255" t="s">
+        <v>540</v>
+      </c>
+      <c r="C255" t="s">
+        <v>496</v>
+      </c>
+      <c r="D255" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>462</v>
+      </c>
+      <c r="B256" t="s">
+        <v>541</v>
+      </c>
+      <c r="C256" t="s">
+        <v>496</v>
+      </c>
+      <c r="D256" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>463</v>
+      </c>
+      <c r="B257" t="s">
+        <v>542</v>
+      </c>
+      <c r="C257" t="s">
+        <v>496</v>
+      </c>
+      <c r="D257" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>464</v>
+      </c>
+      <c r="B258" t="s">
+        <v>543</v>
+      </c>
+      <c r="C258" t="s">
+        <v>496</v>
+      </c>
+      <c r="D258" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>465</v>
+      </c>
+      <c r="B259" t="s">
+        <v>544</v>
+      </c>
+      <c r="C259" t="s">
+        <v>496</v>
+      </c>
+      <c r="D259" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>466</v>
+      </c>
+      <c r="B260" t="s">
+        <v>545</v>
+      </c>
+      <c r="C260" t="s">
+        <v>496</v>
+      </c>
+      <c r="D260" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>467</v>
+      </c>
+      <c r="B261" t="s">
+        <v>546</v>
+      </c>
+      <c r="C261" t="s">
+        <v>496</v>
+      </c>
+      <c r="D261" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>468</v>
+      </c>
+      <c r="B262" t="s">
+        <v>547</v>
+      </c>
+      <c r="C262" t="s">
+        <v>496</v>
+      </c>
+      <c r="D262" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>469</v>
+      </c>
+      <c r="B263" t="s">
+        <v>548</v>
+      </c>
+      <c r="C263" t="s">
+        <v>496</v>
+      </c>
+      <c r="D263" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>470</v>
+      </c>
+      <c r="B264" t="s">
+        <v>549</v>
+      </c>
+      <c r="C264" t="s">
+        <v>496</v>
+      </c>
+      <c r="D264" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>471</v>
+      </c>
+      <c r="B265" t="s">
+        <v>550</v>
+      </c>
+      <c r="C265" t="s">
+        <v>496</v>
+      </c>
+      <c r="D265" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>472</v>
+      </c>
+      <c r="B266" t="s">
+        <v>551</v>
+      </c>
+      <c r="C266" t="s">
+        <v>496</v>
+      </c>
+      <c r="D266" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>473</v>
+      </c>
+      <c r="B267" t="s">
+        <v>552</v>
+      </c>
+      <c r="C267" t="s">
+        <v>496</v>
+      </c>
+      <c r="D267" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>474</v>
+      </c>
+      <c r="B268" t="s">
+        <v>553</v>
+      </c>
+      <c r="C268" t="s">
+        <v>496</v>
+      </c>
+      <c r="D268" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>475</v>
+      </c>
+      <c r="B269" t="s">
+        <v>554</v>
+      </c>
+      <c r="C269" t="s">
+        <v>497</v>
+      </c>
+      <c r="D269" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>476</v>
+      </c>
+      <c r="B270" t="s">
+        <v>545</v>
+      </c>
+      <c r="C270" t="s">
+        <v>498</v>
+      </c>
+      <c r="D270" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>477</v>
+      </c>
+      <c r="B271" t="s">
+        <v>555</v>
+      </c>
+      <c r="C271" t="s">
+        <v>498</v>
+      </c>
+      <c r="D271" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>478</v>
+      </c>
+      <c r="B272" t="s">
+        <v>556</v>
+      </c>
+      <c r="C272" t="s">
+        <v>498</v>
+      </c>
+      <c r="D272" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>479</v>
+      </c>
+      <c r="B273" t="s">
+        <v>557</v>
+      </c>
+      <c r="C273" t="s">
+        <v>499</v>
+      </c>
+      <c r="D273" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>480</v>
+      </c>
+      <c r="B274" t="s">
+        <v>558</v>
+      </c>
+      <c r="C274" t="s">
+        <v>499</v>
+      </c>
+      <c r="D274" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>481</v>
+      </c>
+      <c r="B275" t="s">
+        <v>559</v>
+      </c>
+      <c r="C275" t="s">
+        <v>481</v>
+      </c>
+      <c r="D275" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>483</v>
+      </c>
+      <c r="B276" t="s">
+        <v>482</v>
+      </c>
+      <c r="C276" t="s">
+        <v>495</v>
+      </c>
+      <c r="D276" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>485</v>
+      </c>
+      <c r="B277" t="s">
+        <v>484</v>
+      </c>
+      <c r="C277" t="s">
+        <v>495</v>
+      </c>
+      <c r="D277" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>487</v>
+      </c>
+      <c r="B278" t="s">
+        <v>486</v>
+      </c>
+      <c r="C278" t="s">
+        <v>495</v>
+      </c>
+      <c r="D278" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>489</v>
+      </c>
+      <c r="B279" t="s">
+        <v>488</v>
+      </c>
+      <c r="C279" t="s">
+        <v>495</v>
+      </c>
+      <c r="D279" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>491</v>
+      </c>
+      <c r="B280" t="s">
+        <v>490</v>
+      </c>
+      <c r="C280" t="s">
+        <v>495</v>
+      </c>
+      <c r="D280" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>493</v>
+      </c>
+      <c r="B281" t="s">
+        <v>492</v>
+      </c>
+      <c r="C281" t="s">
+        <v>495</v>
+      </c>
+      <c r="D281" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>495</v>
+      </c>
+      <c r="B282" t="s">
+        <v>494</v>
+      </c>
+      <c r="C282" t="s">
+        <v>495</v>
+      </c>
+      <c r="D282" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4609,18 +6038,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4825,18 +6254,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E7F2A7-7AA2-4CE0-90AC-26600B176C6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474E2153-EB25-4980-9A70-E3EA83451187}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474E2153-EB25-4980-9A70-E3EA83451187}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E7F2A7-7AA2-4CE0-90AC-26600B176C6D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
